--- a/INTLINE/data/566/PHSE/Philippine Composite Index - Monthly.xlsx
+++ b/INTLINE/data/566/PHSE/Philippine Composite Index - Monthly.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="303">
   <si>
     <t>1986-03</t>
   </si>
@@ -899,6 +899,9 @@
   </si>
   <si>
     <t>2022-05</t>
+  </si>
+  <si>
+    <t>2022-06</t>
   </si>
   <si>
     <t>Index</t>
@@ -1277,15 +1280,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:KM2"/>
+  <dimension ref="A1:KN2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:299">
+    <row r="1" spans="1:300">
       <c r="A1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2181,10 +2184,13 @@
       <c r="KM1" s="1" t="s">
         <v>297</v>
       </c>
+      <c r="KN1" s="1" t="s">
+        <v>298</v>
+      </c>
     </row>
-    <row r="2" spans="1:299">
+    <row r="2" spans="1:300">
       <c r="A2" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B2">
         <v>169.5</v>
@@ -3069,16 +3075,19 @@
         <v>6731.25</v>
       </c>
       <c r="KJ2">
-        <v>6798.33</v>
-      </c>
-      <c r="KK2" t="s">
-        <v>299</v>
+        <v>6774.68</v>
+      </c>
+      <c r="KK2">
+        <v>6273.73</v>
       </c>
       <c r="KL2" t="s">
         <v>300</v>
       </c>
       <c r="KM2" t="s">
         <v>301</v>
+      </c>
+      <c r="KN2" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
